--- a/out/results_2024-06-22.xlsx
+++ b/out/results_2024-06-22.xlsx
@@ -16,21 +16,129 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="62">
   <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Vars</t>
+  </si>
+  <si>
+    <t>Cls</t>
+  </si>
+  <si>
+    <t>3-2-2</t>
+  </si>
+  <si>
+    <t>matrix_n_r</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>5-3-2</t>
+  </si>
+  <si>
+    <t>4-3-3</t>
+  </si>
+  <si>
+    <t>7-4-2</t>
+  </si>
+  <si>
+    <t>9-5-2</t>
+  </si>
+  <si>
+    <t>5-4-4</t>
+  </si>
+  <si>
+    <t>11-6-2</t>
+  </si>
+  <si>
+    <t>7-6-3</t>
+  </si>
+  <si>
+    <t>13-7-2</t>
+  </si>
+  <si>
+    <t>6-5-5</t>
+  </si>
+  <si>
+    <t>unsat</t>
+  </si>
+  <si>
+    <t>7-7-3</t>
+  </si>
+  <si>
+    <t>5-8-3</t>
+  </si>
+  <si>
+    <t>3-6-6</t>
+  </si>
+  <si>
+    <t>15-8-2</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>6-7-4</t>
+  </si>
+  <si>
+    <t>3-8-5</t>
+  </si>
+  <si>
+    <t>5-7-5</t>
+  </si>
+  <si>
+    <t>17-9-2</t>
+  </si>
+  <si>
+    <t>4-7-6</t>
+  </si>
+  <si>
+    <t>3-9-5</t>
+  </si>
+  <si>
     <t>10-9-3</t>
   </si>
   <si>
-    <t>matrix_n_r</t>
-  </si>
-  <si>
-    <t>0.000</t>
-  </si>
-  <si>
-    <t>sat</t>
+    <t>6-9-4</t>
+  </si>
+  <si>
+    <t>8-10-3</t>
   </si>
   <si>
     <t>19-10-2</t>
   </si>
   <si>
+    <t>3-9-6</t>
+  </si>
+  <si>
+    <t>5-10-4</t>
+  </si>
+  <si>
+    <t>4-8-7</t>
+  </si>
+  <si>
+    <t>5-10-5</t>
+  </si>
+  <si>
+    <t>4-9-7</t>
+  </si>
+  <si>
     <t>5-3-1</t>
   </si>
   <si>
@@ -43,6 +151,9 @@
     <t>5-3-5</t>
   </si>
   <si>
+    <t>5-3-6</t>
+  </si>
+  <si>
     <t>8-4-1</t>
   </si>
   <si>
@@ -61,43 +172,19 @@
     <t>8-4-6</t>
   </si>
   <si>
-    <t>0.016</t>
-  </si>
-  <si>
-    <t>3-2-2</t>
-  </si>
-  <si>
-    <t>5-3-2</t>
-  </si>
-  <si>
-    <t>4-3-3</t>
-  </si>
-  <si>
-    <t>7-4-2</t>
-  </si>
-  <si>
-    <t>9-5-2</t>
-  </si>
-  <si>
-    <t>5-4-4</t>
-  </si>
-  <si>
-    <t>11-6-2</t>
-  </si>
-  <si>
-    <t>7-6-3</t>
-  </si>
-  <si>
-    <t>13-7-2</t>
-  </si>
-  <si>
-    <t>7-7-3</t>
-  </si>
-  <si>
-    <t>15-8-2</t>
-  </si>
-  <si>
-    <t>17-9-2</t>
+    <t>5-3-7</t>
+  </si>
+  <si>
+    <t>8-4-7</t>
+  </si>
+  <si>
+    <t>8-4-8</t>
+  </si>
+  <si>
+    <t>8-4-9</t>
+  </si>
+  <si>
+    <t>8-4-10</t>
   </si>
   <si>
     <t>9-4-6</t>
@@ -106,72 +193,6 @@
     <t>9-4-7</t>
   </si>
   <si>
-    <t>6-5-5</t>
-  </si>
-  <si>
-    <t>unsat</t>
-  </si>
-  <si>
-    <t>5-8-3</t>
-  </si>
-  <si>
-    <t>3-6-6</t>
-  </si>
-  <si>
-    <t>6-7-4</t>
-  </si>
-  <si>
-    <t>3-8-5</t>
-  </si>
-  <si>
-    <t>5-7-5</t>
-  </si>
-  <si>
-    <t>4-7-6</t>
-  </si>
-  <si>
-    <t>3-9-5</t>
-  </si>
-  <si>
-    <t>6-9-4</t>
-  </si>
-  <si>
-    <t>8-10-3</t>
-  </si>
-  <si>
-    <t>3-9-6</t>
-  </si>
-  <si>
-    <t>5-10-4</t>
-  </si>
-  <si>
-    <t>4-8-7</t>
-  </si>
-  <si>
-    <t>5-10-5</t>
-  </si>
-  <si>
-    <t>4-9-7</t>
-  </si>
-  <si>
-    <t>5-3-6</t>
-  </si>
-  <si>
-    <t>5-3-7</t>
-  </si>
-  <si>
-    <t>8-4-7</t>
-  </si>
-  <si>
-    <t>8-4-8</t>
-  </si>
-  <si>
-    <t>8-4-9</t>
-  </si>
-  <si>
-    <t>8-4-10</t>
-  </si>
-  <si>
     <t>9-4-8</t>
   </si>
   <si>
@@ -179,27 +200,6 @@
   </si>
   <si>
     <t>9-4-10</t>
-  </si>
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Time(s)</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Vars</t>
-  </si>
-  <si>
-    <t>Cls</t>
   </si>
 </sst>
 </file>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,25 +551,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -577,16 +577,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>63</v>
@@ -600,16 +600,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>345</v>
@@ -623,16 +623,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>384</v>
@@ -646,16 +646,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1106</v>
@@ -669,16 +669,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2700</v>
@@ -692,16 +692,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>1450</v>
@@ -715,16 +715,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>5577</v>
@@ -738,16 +738,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>4116</v>
@@ -761,16 +761,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>10283</v>
@@ -784,16 +784,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>4140</v>
@@ -807,16 +807,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>5439</v>
@@ -830,16 +830,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F13">
         <v>3440</v>
@@ -853,16 +853,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>1629</v>
@@ -876,16 +876,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>17460</v>
@@ -899,16 +899,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>5796</v>
@@ -922,16 +922,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F17">
         <v>2232</v>
@@ -945,16 +945,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>5215</v>
@@ -968,16 +968,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>27846</v>
@@ -991,16 +991,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F20">
         <v>4032</v>
@@ -1014,16 +1014,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>2781</v>
@@ -1037,16 +1037,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>18000</v>
@@ -1060,16 +1060,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>9234</v>
@@ -1083,16 +1083,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>13840</v>
@@ -1106,16 +1106,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>42275</v>
@@ -1129,16 +1129,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>3456</v>
@@ -1152,16 +1152,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F27">
         <v>7675</v>
@@ -1175,16 +1175,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F28">
         <v>6176</v>
@@ -1198,16 +1198,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F29">
         <v>10150</v>
@@ -1221,16 +1221,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F30">
         <v>7704</v>
@@ -1244,16 +1244,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>75</v>
@@ -1267,16 +1267,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>615</v>
@@ -1290,16 +1290,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>885</v>
@@ -1313,16 +1313,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>1155</v>
@@ -1336,16 +1336,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F35">
         <v>1425</v>
@@ -1359,16 +1359,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>256</v>
@@ -1382,16 +1382,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>1456</v>
@@ -1405,16 +1405,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>2656</v>
@@ -1428,16 +1428,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>3856</v>
@@ -1451,16 +1451,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>5056</v>
@@ -1474,16 +1474,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>6256</v>
@@ -1497,16 +1497,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F42">
         <v>1695</v>
@@ -1520,16 +1520,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F43">
         <v>7456</v>
@@ -1543,16 +1543,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F44">
         <v>8656</v>
@@ -1566,16 +1566,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F45">
         <v>9856</v>
@@ -1589,16 +1589,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F46">
         <v>11056</v>
@@ -1612,16 +1612,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F47">
         <v>7974</v>
@@ -1635,16 +1635,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>9504</v>
@@ -1658,16 +1658,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F49">
         <v>11034</v>
@@ -1681,16 +1681,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F50">
         <v>12564</v>
@@ -1704,16 +1704,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F51">
         <v>14094</v>
